--- a/Presupuesto notgoodreview.xlsx
+++ b/Presupuesto notgoodreview.xlsx
@@ -170,18 +170,6 @@
     <t>Sketch para el sitio principal de la pagina</t>
   </si>
   <si>
-    <t>Sketch para pagina de formulario</t>
-  </si>
-  <si>
-    <t>Sketch para pagina de donar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sketch para pagina dar en adopcion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  sketch para pagina quiero adoptar</t>
-  </si>
-  <si>
     <t>Maqueracion de todas las paginas propuestas</t>
   </si>
   <si>
@@ -213,6 +201,18 @@
   </si>
   <si>
     <t>Sketch cotactos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sketch redes notgoodreview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sketch  contacto notgoodreview</t>
+  </si>
+  <si>
+    <t>Sketch inicio sesion notgoodreview</t>
+  </si>
+  <si>
+    <t>Sketch reseñas notgoodreview</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
     <numFmt numFmtId="165" formatCode="[$$-2C0A]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,6 +290,13 @@
       <b/>
       <sz val="10"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -379,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -448,10 +455,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -470,10 +473,6 @@
     <xf numFmtId="165" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +480,15 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,11 +839,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -851,23 +859,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="45">
         <f>SUM(I4:I22)</f>
         <v>305673</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="40" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="18">
@@ -876,44 +884,44 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>44870</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="34"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>2</v>
       </c>
     </row>
@@ -979,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" ref="I5:I22" si="0">IF(F5 = "","",SUM(F5:H5))</f>
+        <f t="shared" ref="I5:I11" si="0">IF(F5 = "","",SUM(F5:H5))</f>
         <v>16522</v>
       </c>
     </row>
@@ -1051,10 +1059,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8">
         <v>15</v>
@@ -1084,10 +1092,10 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8">
         <v>8</v>
@@ -1117,10 +1125,10 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8">
         <v>12</v>
@@ -1150,10 +1158,10 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8">
         <v>11</v>
@@ -1183,7 +1191,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="8">
@@ -1208,13 +1216,13 @@
         <v>5160</v>
       </c>
       <c r="I12" s="15">
-        <f>IF(F12 = "","",SUM(F12:H12))</f>
+        <f t="shared" ref="I12:I17" si="1">IF(F12 = "","",SUM(F12:H12))</f>
         <v>33540</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8">
@@ -1239,13 +1247,13 @@
         <v>16160</v>
       </c>
       <c r="I13" s="15">
-        <f>IF(F13 = "","",SUM(F13:H13))</f>
+        <f t="shared" si="1"/>
         <v>105040</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="8">
@@ -1270,13 +1278,13 @@
         <v>1760</v>
       </c>
       <c r="I14" s="15">
-        <f>IF(F14 = "","",SUM(F14:H14))</f>
+        <f t="shared" si="1"/>
         <v>11440</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8">
@@ -1301,13 +1309,13 @@
         <v>2160</v>
       </c>
       <c r="I15" s="15">
-        <f>IF(F15 = "","",SUM(F15:H15))</f>
+        <f t="shared" si="1"/>
         <v>14040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="8">
@@ -1332,13 +1340,13 @@
         <v>2960</v>
       </c>
       <c r="I16" s="15">
-        <f>IF(F16 = "","",SUM(F16:H16))</f>
+        <f t="shared" si="1"/>
         <v>19240</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8">
@@ -1363,7 +1371,7 @@
         <v>3760</v>
       </c>
       <c r="I17" s="15">
-        <f>IF(F17 = "","",SUM(F17:H17))</f>
+        <f t="shared" si="1"/>
         <v>24440</v>
       </c>
     </row>
@@ -1373,10 +1381,10 @@
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="45"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="8"/>
@@ -1384,10 +1392,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="45"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="8"/>
@@ -1395,10 +1403,10 @@
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="45"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
@@ -1406,10 +1414,13 @@
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="45"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1417,6 +1428,7 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
